--- a/statics/receipt-deposit.xlsx
+++ b/statics/receipt-deposit.xlsx
@@ -69,9 +69,6 @@
     <t>(janji bayar)</t>
   </si>
   <si>
-    <t>Kode Cetak</t>
-  </si>
-  <si>
     <t>(kode cetak)</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
   </si>
   <si>
     <t>Jatuh Tempo</t>
+  </si>
+  <si>
+    <t>Kode Arah</t>
   </si>
 </sst>
 </file>
@@ -384,6 +384,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -392,15 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -415,103 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,7 +886,7 @@
   <dimension ref="B1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,94 +911,94 @@
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" s="10"/>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="4"/>
       <c r="H3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
+      <c r="J3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
-      <c r="C4" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
         <v>11</v>
@@ -1006,23 +1006,23 @@
       <c r="I5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
-      <c r="C6" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="C6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
         <v>12</v>
@@ -1030,53 +1030,53 @@
       <c r="I6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
-      <c r="C7" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
+      <c r="C7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
+      <c r="J7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
     </row>
     <row r="8" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="8"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1084,19 +1084,19 @@
       <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="D9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1104,111 +1104,111 @@
       <c r="C10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+      <c r="D10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="51"/>
+      <c r="C11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="27"/>
       <c r="E11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
+      <c r="F11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
       <c r="V11" s="12"/>
     </row>
     <row r="12" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="40"/>
+      <c r="C12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="31"/>
       <c r="E12" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="43"/>
+      <c r="F12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
       <c r="V12" s="12"/>
     </row>
     <row r="13" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="40"/>
+      <c r="C13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="31"/>
       <c r="E13" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="44"/>
+      <c r="F13" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="35"/>
       <c r="V13" s="12"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="45"/>
+      <c r="C14" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="36"/>
       <c r="E14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="48"/>
+      <c r="F14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="39"/>
       <c r="V14" s="12"/>
     </row>
     <row r="15" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1229,165 +1229,135 @@
     </row>
     <row r="16" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="29" t="s">
+      <c r="C16" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31" t="s">
+      <c r="I16" s="41"/>
+      <c r="J16" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="33"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="44"/>
     </row>
     <row r="17" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="34" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="22"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="48"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="22"/>
+      <c r="C18" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="48"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="48"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="22"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="48"/>
     </row>
     <row r="20" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="24" t="s">
+      <c r="C20" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="58"/>
+      <c r="J20" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="25"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="58"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
     </row>
     <row r="37" spans="22:22" x14ac:dyDescent="0.25">
       <c r="V37" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="C1:F3"/>
-    <mergeCell ref="H1:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:O11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="C16:G17"/>
     <mergeCell ref="C18:G19"/>
     <mergeCell ref="C21:N21"/>
     <mergeCell ref="C22:N22"/>
@@ -1398,6 +1368,36 @@
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:O20"/>
     <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="C16:G17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:O11"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="C1:F3"/>
+    <mergeCell ref="H1:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="J4:O4"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0.3543307086614173" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="127" orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
